--- a/CRMFlexExcel/src/com/fellow/main/Foersaeljningsledare.xlsx
+++ b/CRMFlexExcel/src/com/fellow/main/Foersaeljningsledare.xlsx
@@ -50,27 +50,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -80,10 +65,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,49 +366,49 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36" style="2" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="2" customWidth="1"/>
-    <col min="4" max="7" width="7.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="20.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="36" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="5" customWidth="1"/>
+    <col min="4" max="7" width="7.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12" style="5" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" style="5" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="3"/>
+      <c r="A3" s="4"/>
     </row>
   </sheetData>
   <sheetProtection password="BC82" sheet="1" objects="1" scenarios="1"/>
